--- a/Data Model.xlsx
+++ b/Data Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00a6d6428d517696/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1E6F1E7-9442-4938-BAD2-28A66C0FAE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{F1E6F1E7-9442-4938-BAD2-28A66C0FAE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF5E219E-4F95-45F9-8F5C-6323AD0ADCFB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54D6F6BE-75DF-42E0-9724-A5E22DAFCD20}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>player_id</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>country_code</t>
-  </si>
-  <si>
-    <t>tour</t>
   </si>
   <si>
     <t>ranking_date</t>
@@ -957,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F9419-81F3-45A8-93AB-2457AB14C13A}">
-  <dimension ref="D4:L54"/>
+  <dimension ref="D3:L54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,73 +965,74 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="4:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="J5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
       <c r="J6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="J7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="J8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="J9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="J10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="J11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="4:12" x14ac:dyDescent="0.25">
@@ -1042,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="4:12" x14ac:dyDescent="0.25">
@@ -1053,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="4:12" x14ac:dyDescent="0.25">
@@ -1064,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.25">
@@ -1072,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
@@ -1080,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.25">
@@ -1091,214 +1089,211 @@
         <v>5</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="L19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J39" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H41" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="8:12" x14ac:dyDescent="0.25">
@@ -1306,83 +1301,83 @@
         <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J45" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
